--- a/Tyrimo rezultatai.xlsx
+++ b/Tyrimo rezultatai.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="-225" yWindow="-255" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Results!$A$124</definedName>
@@ -121,10 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="67">
-  <si>
-    <t>Job: Sfera128</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="113">
   <si>
     <t>Min</t>
   </si>
@@ -323,6 +321,197 @@
   <si>
     <t>Mandelbulb512</t>
   </si>
+  <si>
+    <t>Failas: Sfera128</t>
+  </si>
+  <si>
+    <t>Sfera 256x256</t>
+  </si>
+  <si>
+    <t>Sfera 512x512</t>
+  </si>
+  <si>
+    <t>Sfera 1024x1024</t>
+  </si>
+  <si>
+    <t>Sfera 2048x2048</t>
+  </si>
+  <si>
+    <t>Kempinė 256x256</t>
+  </si>
+  <si>
+    <t>Kempinė 512x512</t>
+  </si>
+  <si>
+    <t>Kempinė 1024x1024</t>
+  </si>
+  <si>
+    <t>Kempinė 2048x2048</t>
+  </si>
+  <si>
+    <t>Mandelbulb 256x256</t>
+  </si>
+  <si>
+    <t>Mandelbulb 512x512</t>
+  </si>
+  <si>
+    <t>Mandelbulb 1024x1024</t>
+  </si>
+  <si>
+    <t>Mandelbulb 2048x2048</t>
+  </si>
+  <si>
+    <t>128x128</t>
+  </si>
+  <si>
+    <t>256x256</t>
+  </si>
+  <si>
+    <t>5,29</t>
+  </si>
+  <si>
+    <t>1920x1080</t>
+  </si>
+  <si>
+    <t>Sferos scena su 1 gija per bloką</t>
+  </si>
+  <si>
+    <t>Sferos scena su 4 gijomis per bloką</t>
+  </si>
+  <si>
+    <t>Sferos scena su 16 gijomis per bloką</t>
+  </si>
+  <si>
+    <t>Sferos scena su 32 gijomis per bloką</t>
+  </si>
+  <si>
+    <t>Sferos scena su 64 gijomis per bloką</t>
+  </si>
+  <si>
+    <t>Sferos scena su 128 gijomis per bloką</t>
+  </si>
+  <si>
+    <t>Sferos scena su 256 gijomis per bloką</t>
+  </si>
+  <si>
+    <t>Sferos scena su 512 gijomis per bloką</t>
+  </si>
+  <si>
+    <t>Mengerio kempinės scena su 1 gija per bloką</t>
+  </si>
+  <si>
+    <t>Mengerio kempinės scena su 4 gijomis per bloką</t>
+  </si>
+  <si>
+    <t>Mengerio kempinės scena su 16 gijomis per bloką</t>
+  </si>
+  <si>
+    <t>Mengerio kempinės scena su 32 gijomis per bloką</t>
+  </si>
+  <si>
+    <t>Mengerio kempinės scena su 64 gijomis per bloką</t>
+  </si>
+  <si>
+    <t>Mengerio kempinės scena su 128 gijomis per bloką</t>
+  </si>
+  <si>
+    <t>Mengerio kempinės scena su 512 gijomis per bloką</t>
+  </si>
+  <si>
+    <t>Mengerio kempinės scena su 256 gijomis per bloką</t>
+  </si>
+  <si>
+    <t>„Mandelbulb“ scena su 1 gija per bloką</t>
+  </si>
+  <si>
+    <t>„Mandelbulb“ scena su 4 gijomis per bloką</t>
+  </si>
+  <si>
+    <t>„Mandelbulb“ scena su 16 gijomis per bloką</t>
+  </si>
+  <si>
+    <t>„Mandelbulb“ scena su 32 gijomis per bloką</t>
+  </si>
+  <si>
+    <t>„Mandelbulb“ scena su 64 gijomis per bloką</t>
+  </si>
+  <si>
+    <t>„Mandelbulb“ scena su 128 gijomis per bloką</t>
+  </si>
+  <si>
+    <t>„Mandelbulb“ scena su 256 gijomis per bloką</t>
+  </si>
+  <si>
+    <t>„Mandelbulb“ scena su 512 gijomis per bloką</t>
+  </si>
+  <si>
+    <r>
+      <t>Augimas K</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Spartumas S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Augimas K</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Spartumas S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Maks.</t>
+  </si>
+  <si>
+    <t>Min.</t>
+  </si>
 </sst>
 </file>
 
@@ -331,7 +520,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,8 +528,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,8 +587,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0B4DC7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABF8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -430,11 +664,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -475,6 +787,42 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,7 +893,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11839795072459912"/>
+          <c:y val="0.13047301947799073"/>
+          <c:w val="0.61238454844188006"/>
+          <c:h val="0.72229708300138362"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -754,11 +1112,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="166603392"/>
-        <c:axId val="166613760"/>
+        <c:axId val="156646784"/>
+        <c:axId val="156653056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166603392"/>
+        <c:axId val="156646784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -788,7 +1146,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166613760"/>
+        <c:crossAx val="156653056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -797,7 +1155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166613760"/>
+        <c:axId val="156653056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,7 +1186,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166603392"/>
+        <c:crossAx val="156646784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -839,9 +1197,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.67428197208144869"/>
+          <c:x val="0.74285346250062434"/>
           <c:y val="0.40394862871302478"/>
-          <c:w val="0.30185635878927924"/>
+          <c:w val="0.23328499008741702"/>
           <c:h val="0.25721900574522233"/>
         </c:manualLayout>
       </c:layout>
@@ -895,8 +1253,10 @@
               <a:t>Scenu </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="lt-LT"/>
-              <a:t>spartumo </a:t>
+              <a:rPr lang="lt-LT" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>spartinimo </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -1171,11 +1531,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="167371904"/>
-        <c:axId val="167373440"/>
+        <c:axId val="166647680"/>
+        <c:axId val="166649216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="167371904"/>
+        <c:axId val="166647680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1185,7 +1545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167373440"/>
+        <c:crossAx val="166649216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1193,7 +1553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167373440"/>
+        <c:axId val="166649216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1564,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167371904"/>
+        <c:crossAx val="166647680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1216,6 +1576,2182 @@
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sferos scen</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="lt-LT"/>
+              <a:t>a</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18774566082465499"/>
+          <c:y val="8.6326534049314507E-2"/>
+          <c:w val="0.75048006096012188"/>
+          <c:h val="0.7163050069185728"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$AH$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sfera 256x256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$Z$2:$AF$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Results!$S$8,Results!$S$13,Results!$S$18,Results!$S$23,Results!$S$28,Results!$S$33,Results!$S$38)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$AH$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sfera 512x512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$Z$2:$AF$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Results!$S$9,Results!$S$14,Results!$S$19,Results!$S$24,Results!$S$29,Results!$S$34,Results!$S$39)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$AH$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sfera 1024x1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$Z$2:$AF$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Results!$S$10,Results!$S$15,Results!$S$20,Results!$S$25,Results!$S$30,Results!$S$35,Results!$S$40)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.6190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$AH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sfera 2048x2048</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$Z$2:$AF$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Results!$S$11,Results!$S$16,Results!$S$21,Results!$S$26,Results!$S$31,Results!$S$36,Results!$S$41)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>14.511001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.149</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4340000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="166360960"/>
+        <c:axId val="166362496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="166360960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Gijos per blok</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="lt-LT" sz="1100"/>
+                  <a:t>ą</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39442655151976969"/>
+              <c:y val="0.85140887486176065"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="166362496"/>
+        <c:crossesAt val="6.2500000000000014E-2"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="166362496"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166360960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>„</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="lt-LT"/>
+              <a:t>Mangelbulb</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>“</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="lt-LT"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>scen</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="lt-LT"/>
+              <a:t>a</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18774566082465499"/>
+          <c:y val="8.6326534049314507E-2"/>
+          <c:w val="0.75048006096012188"/>
+          <c:h val="0.6664043006184921"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$AJ$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mandelbulb 256x256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$Z$2:$AF$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Results!$S$92,Results!$S$97,Results!$S$102,Results!$S$107,Results!$S$112,Results!$S$117,Results!$S$122)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.4119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$AJ$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mandelbulb 512x512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$Z$2:$AF$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Results!$S$93,Results!$S$98,Results!$S$103,Results!$S$108,Results!$S$113,Results!$S$118,Results!$S$123)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16.322001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7889999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$AJ$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mandelbulb 1024x1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$Z$2:$AF$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Results!$S$94,Results!$S$99,Results!$S$104,Results!$S$109,Results!$S$114,Results!$S$119,Results!$S$124)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>56.414000999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.688000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.179999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.317</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.021999000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$AJ$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mandelbulb 2048x2048</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$Z$2:$AF$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Results!$S$95,Results!$S$100,Results!$S$105,Results!$S$110,Results!$S$115,Results!$S$120,Results!$S$125)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>201.45001199999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.262000999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.529998999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.648997999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.394001000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.796000999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.704998000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="166401920"/>
+        <c:axId val="166403456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="166401920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lt-LT" sz="1100"/>
+                  <a:t>Gijos per bloką</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4030287020574041"/>
+              <c:y val="0.80132012400184083"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="166403456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="166403456"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="128"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166401920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.2903225806451613E-2"/>
+          <c:y val="0.84491210741205014"/>
+          <c:w val="0.96056049445432223"/>
+          <c:h val="0.15508789258795"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="lt-LT"/>
+              <a:t>Mengerio kempinės scena </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18774566082465499"/>
+          <c:y val="0.14743763179404379"/>
+          <c:w val="0.75048006096012188"/>
+          <c:h val="0.63198302339867096"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$AI$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kempinė 256x256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$Z$2:$AF$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Results!$S$50,Results!$S$55,Results!$S$60,Results!$S$65,Results!$S$70,Results!$S$75,Results!$S$80)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.9580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60399999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$AI$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kempinė 512x512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$Z$2:$AF$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Results!$S$51,Results!$S$56,Results!$S$61,Results!$S$66,Results!$S$71,Results!$S$76,Results!$S$81)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10.083</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5179999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4460000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.853</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0710000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$AI$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kempinė 1024x1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$Z$2:$AF$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Results!$S$52,Results!$S$57,Results!$S$62,Results!$S$67,Results!$S$72,Results!$S$77,Results!$S$82)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>28.595001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2320000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4109999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2690000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$AI$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kempinė 2048x2048</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$Z$2:$AF$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Results!$S$53,Results!$S$58,Results!$S$63,Results!$S$68,Results!$S$73,Results!$S$78,Results!$S$83)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>109.229996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.186000999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.688002000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.924999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.245999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="166442880"/>
+        <c:axId val="166444416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="166442880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lt-LT" sz="1100"/>
+                  <a:t>Gijos per bloką</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="166444416"/>
+        <c:crossesAt val="0.4"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="166444416"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166442880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0"/>
+          <c:y val="0.86991210194398483"/>
+          <c:w val="0.9724311235289137"/>
+          <c:h val="0.11342123503472548"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$Z$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sfera</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$Z$2:$AF$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Results!$S$9,Results!$S$14,Results!$S$19,Results!$S$24,Results!$S$29,Results!$S$34,Results!$S$39)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$AA$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kempinė</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$Z$2:$AF$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Results!$S$51,Results!$S$56,Results!$S$61,Results!$S$66,Results!$S$71,Results!$S$76,Results!$S$81)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10.083</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5179999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4460000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.853</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0710000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$AB$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mandelbulb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$Z$2:$AF$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Results!$S$93,Results!$S$98,Results!$S$103,Results!$S$108,Results!$S$113,Results!$S$118,Results!$S$123)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16.322001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7889999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="166495360"/>
+        <c:axId val="166497280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="166495360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lt-LT" sz="1400"/>
+                  <a:t>Gijos per bloką</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="166497280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="166497280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lt-LT" sz="1400" b="1"/>
+                  <a:t>Kadrų greitis (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="166495360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="lt-LT"/>
+              <a:t>Sukurto įrankio greičio pranašumas lyginant su</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>„</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="lt-LT" baseline="0"/>
+              <a:t>Blender</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>“</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="lt-LT" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11974617192352545"/>
+          <c:y val="0.19294950843009032"/>
+          <c:w val="0.86075028470007753"/>
+          <c:h val="0.61734739089817159"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pranašumas</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="12"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0059770114942531E-2"/>
+                  <c:y val="-7.4011930326890962E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Results!$A$171:$A$175</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>128x128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256x256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512x512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024x1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1920x1080</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$D$171:$D$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="166517376"/>
+        <c:axId val="166991744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="166517376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>U</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="lt-LT" sz="1200"/>
+                  <a:t>žuoties</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="lt-LT" sz="1200" baseline="0"/>
+                  <a:t> skiriamoji geba</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43000161528988451"/>
+              <c:y val="0.90867778815783617"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="166991744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="166991744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lt-LT" sz="1600" b="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Kadrų</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="lt-LT" sz="1600" b="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="lt-LT" sz="1600" b="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>laiko </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="lt-LT" sz="1600" b="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>santykis</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600" b="0">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="166517376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1259,7 +3795,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1473,11 +4008,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="166649856"/>
-        <c:axId val="166651392"/>
+        <c:axId val="156685056"/>
+        <c:axId val="156686592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166649856"/>
+        <c:axId val="156685056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +4022,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166651392"/>
+        <c:crossAx val="156686592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1496,7 +4031,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166651392"/>
+        <c:axId val="156686592"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1508,14 +4043,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166649856"/>
+        <c:crossAx val="156685056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1909,11 +4443,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167557760"/>
-        <c:axId val="167559552"/>
+        <c:axId val="157146496"/>
+        <c:axId val="157148288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167557760"/>
+        <c:axId val="157146496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,7 +4457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167559552"/>
+        <c:crossAx val="157148288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1931,7 +4465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167559552"/>
+        <c:axId val="157148288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1942,7 +4476,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167557760"/>
+        <c:crossAx val="157146496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2343,11 +4877,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167597568"/>
-        <c:axId val="167599104"/>
+        <c:axId val="166222080"/>
+        <c:axId val="166236160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167597568"/>
+        <c:axId val="166222080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2357,7 +4891,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167599104"/>
+        <c:crossAx val="166236160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2365,7 +4899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167599104"/>
+        <c:axId val="166236160"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -2377,7 +4911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167597568"/>
+        <c:crossAx val="166222080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2428,7 +4962,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="lt-LT"/>
-              <a:t>spartumas</a:t>
+              <a:t>spartinimas</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2925,11 +5459,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="167720064"/>
-        <c:axId val="167721600"/>
+        <c:axId val="166022528"/>
+        <c:axId val="166032512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="167720064"/>
+        <c:axId val="166022528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2938,7 +5472,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167721600"/>
+        <c:crossAx val="166032512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2946,7 +5480,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167721600"/>
+        <c:axId val="166032512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.70000000000000007"/>
@@ -2958,7 +5492,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167720064"/>
+        <c:crossAx val="166022528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="5.000000000000001E-2"/>
@@ -3021,8 +5555,10 @@
               <a:t> scenos </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="lt-LT"/>
-              <a:t>spartumas</a:t>
+              <a:rPr lang="lt-LT" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>spartinimas</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3519,11 +6055,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="167782272"/>
-        <c:axId val="167783808"/>
+        <c:axId val="166153216"/>
+        <c:axId val="166155008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="167782272"/>
+        <c:axId val="166153216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3532,7 +6068,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167783808"/>
+        <c:crossAx val="166155008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3540,7 +6076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167783808"/>
+        <c:axId val="166155008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3551,7 +6087,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167782272"/>
+        <c:crossAx val="166153216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -3603,8 +6139,10 @@
               <a:t>Mandelbulb scenos </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="lt-LT"/>
-              <a:t>spartumas</a:t>
+              <a:rPr lang="lt-LT" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>spartinimas</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4101,11 +6639,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="167822848"/>
-        <c:axId val="167824384"/>
+        <c:axId val="166195968"/>
+        <c:axId val="166197504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="167822848"/>
+        <c:axId val="166195968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4114,7 +6652,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167824384"/>
+        <c:crossAx val="166197504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4122,7 +6660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167824384"/>
+        <c:axId val="166197504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4133,7 +6671,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167822848"/>
+        <c:crossAx val="166195968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -4185,12 +6723,14 @@
               <a:t>256-&gt;512 Scenu </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="lt-LT"/>
-              <a:t>spartumo</a:t>
+              <a:rPr lang="lt-LT" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>spartinimo </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> palyginimas</a:t>
+              <a:t>palyginimas</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4461,11 +7001,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="167262848"/>
-        <c:axId val="167276928"/>
+        <c:axId val="166567296"/>
+        <c:axId val="166569088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="167262848"/>
+        <c:axId val="166567296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4475,7 +7015,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167276928"/>
+        <c:crossAx val="166569088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4483,7 +7023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167276928"/>
+        <c:axId val="166569088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4494,7 +7034,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167262848"/>
+        <c:crossAx val="166567296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -4546,8 +7086,10 @@
               <a:t>512-&gt;1024 Scenu </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="lt-LT"/>
-              <a:t>spartumo </a:t>
+              <a:rPr lang="lt-LT" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>spartinimo </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -4822,11 +7364,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="167307136"/>
-        <c:axId val="167308672"/>
+        <c:axId val="166599296"/>
+        <c:axId val="166605184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="167307136"/>
+        <c:axId val="166599296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4836,7 +7378,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167308672"/>
+        <c:crossAx val="166605184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4844,7 +7386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167308672"/>
+        <c:axId val="166605184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4855,7 +7397,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167307136"/>
+        <c:crossAx val="166599296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -4883,14 +7425,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>168518</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>137583</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>375708</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>73269</xdr:rowOff>
     </xdr:to>
@@ -4913,16 +7455,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>350228</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>86459</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>197828</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>67409</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>350228</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>140678</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5193,23 +7735,179 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_5" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_4" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_5" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_4" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5499,10 +8197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF145"/>
+  <dimension ref="A1:AJ175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH139" sqref="AH139"/>
+    <sheetView tabSelected="1" topLeftCell="S26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI59" sqref="AI59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5517,11 +8215,14 @@
     <col min="23" max="23" width="11.7109375" customWidth="1"/>
     <col min="24" max="24" width="5.28515625" customWidth="1"/>
     <col min="25" max="25" width="12.140625" customWidth="1"/>
+    <col min="34" max="34" width="15" customWidth="1"/>
+    <col min="35" max="35" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -5538,37 +8239,37 @@
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="S2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="20" t="s">
+      <c r="U2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="20" t="s">
-        <v>4</v>
-      </c>
       <c r="V2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>42</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -5595,9 +8296,9 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="18">
         <v>1.292</v>
@@ -5665,15 +8366,24 @@
         <v>1.3080000000000001</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="18">
         <v>5.1509999999999998</v>
@@ -5752,21 +8462,30 @@
         <v>4</v>
       </c>
       <c r="Y4" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA4" t="s">
         <v>38</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>39</v>
       </c>
-      <c r="AB4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="18">
         <v>15.782000999999999</v>
@@ -5845,12 +8564,21 @@
         <v>4</v>
       </c>
       <c r="Y5" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="18">
         <v>61.347000000000001</v>
@@ -5929,12 +8657,21 @@
         <v>4</v>
       </c>
       <c r="Y6" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -5951,12 +8688,12 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="18">
         <v>0.32400000000000001</v>
@@ -6024,15 +8761,15 @@
         <v>0.32600000000000001</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="18">
         <v>0.98899999999999999</v>
@@ -6108,9 +8845,9 @@
         <v>0.23575949367088611</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="18">
         <v>3.621</v>
@@ -6186,9 +8923,9 @@
         <v>6.3405797101449224E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="18">
         <v>14.507999</v>
@@ -6264,9 +9001,9 @@
         <v>-2.4178640508427662E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -6283,12 +9020,12 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="18">
         <v>0.127</v>
@@ -6356,15 +9093,15 @@
         <v>0.161</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="18">
         <v>0.32800000000000001</v>
@@ -6440,9 +9177,9 @@
         <v>0.42021276595744672</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="18">
         <v>1.056</v>
@@ -6518,9 +9255,9 @@
         <v>0.18883792048929671</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="18">
         <v>3.8959999999999999</v>
@@ -6598,7 +9335,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -6615,12 +9352,12 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="12">
         <v>8.7999999999999995E-2</v>
@@ -6688,15 +9425,15 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="12">
         <v>0.188</v>
@@ -6774,7 +9511,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="12">
         <v>0.60199999999999998</v>
@@ -6852,7 +9589,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="12">
         <v>2.1480000000000001</v>
@@ -6930,7 +9667,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -6947,12 +9684,12 @@
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="12">
         <v>0.13900000000000001</v>
@@ -7020,15 +9757,15 @@
         <v>0.13900000000000001</v>
       </c>
       <c r="V23" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W23" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="12">
         <v>0.192</v>
@@ -7106,7 +9843,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="12">
         <v>0.61</v>
@@ -7184,7 +9921,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="12">
         <v>2.1739999999999999</v>
@@ -7262,7 +9999,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -7279,12 +10016,12 @@
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="12">
         <v>0.13400000000000001</v>
@@ -7352,15 +10089,15 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="V28" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W28" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="12">
         <v>0.23599999999999999</v>
@@ -7438,7 +10175,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" s="12">
         <v>0.64400000000000002</v>
@@ -7516,7 +10253,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" s="12">
         <v>2.17</v>
@@ -7594,7 +10331,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -7611,12 +10348,12 @@
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="12">
         <v>0.14299999999999999</v>
@@ -7684,15 +10421,15 @@
         <v>0.14899999999999999</v>
       </c>
       <c r="V33" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W33" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" s="12">
         <v>0.23100000000000001</v>
@@ -7770,7 +10507,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" s="12">
         <v>0.72799999999999998</v>
@@ -7848,7 +10585,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" s="12">
         <v>2.4359999999999999</v>
@@ -7926,7 +10663,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -7943,12 +10680,12 @@
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
       <c r="Q37" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" s="12">
         <v>0.13900000000000001</v>
@@ -8016,15 +10753,15 @@
         <v>0.16</v>
       </c>
       <c r="V38" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W38" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" s="12">
         <v>0.27200000000000002</v>
@@ -8102,7 +10839,7 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="12">
         <v>1.036</v>
@@ -8180,7 +10917,7 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" s="12">
         <v>3.2549999999999999</v>
@@ -8298,7 +11035,7 @@
       <c r="O43" s="15"/>
       <c r="P43" s="15"/>
       <c r="Q43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -8307,7 +11044,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -8324,30 +11061,30 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R44" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="R44" s="20" t="s">
+      <c r="S44" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T44" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="S44" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="T44" s="20" t="s">
+      <c r="U44" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="U44" s="20" t="s">
-        <v>4</v>
-      </c>
       <c r="V44" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="W44" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="W44" s="20" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" s="18">
         <v>3.6539999999999999</v>
@@ -8415,15 +11152,15 @@
         <v>3.669</v>
       </c>
       <c r="V45" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W45" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" s="18">
         <v>13.678000000000001</v>
@@ -8501,7 +11238,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" s="18">
         <v>52.383999000000003</v>
@@ -8579,7 +11316,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48" s="18">
         <v>203.736008</v>
@@ -8657,7 +11394,7 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -8674,12 +11411,12 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50" s="18">
         <v>2.9870000000000001</v>
@@ -8747,15 +11484,15 @@
         <v>3.0030000000000001</v>
       </c>
       <c r="V50" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W50" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" s="18">
         <v>10.923</v>
@@ -8833,7 +11570,7 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52" s="18">
         <v>28.632000000000001</v>
@@ -8911,7 +11648,7 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B53" s="18">
         <v>109.240005</v>
@@ -8989,7 +11726,7 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -9006,12 +11743,12 @@
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55" s="18">
         <v>0.80900000000000005</v>
@@ -9079,15 +11816,15 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="V55" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W55" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B56" s="18">
         <v>2.5179999999999998</v>
@@ -9165,7 +11902,7 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57" s="18">
         <v>8.9410000000000007</v>
@@ -9243,7 +11980,7 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58" s="18">
         <v>33.155997999999997</v>
@@ -9321,7 +12058,7 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
@@ -9338,12 +12075,12 @@
       <c r="O59" s="14"/>
       <c r="P59" s="14"/>
       <c r="Q59" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" s="12">
         <v>0.53100000000000003</v>
@@ -9411,15 +12148,15 @@
         <v>0.54600000000000004</v>
       </c>
       <c r="V60" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W60" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B61" s="12">
         <v>1.5289999999999999</v>
@@ -9497,7 +12234,7 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B62" s="12">
         <v>5.1550000000000002</v>
@@ -9575,7 +12312,7 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63" s="12">
         <v>18.610001</v>
@@ -9653,7 +12390,7 @@
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
@@ -9670,12 +12407,12 @@
       <c r="O64" s="14"/>
       <c r="P64" s="14"/>
       <c r="Q64" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65" s="12">
         <v>0.48</v>
@@ -9743,15 +12480,15 @@
         <v>0.495</v>
       </c>
       <c r="V65" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W65" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66" s="12">
         <v>1.5089999999999999</v>
@@ -9829,7 +12566,7 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67" s="12">
         <v>5.2089999999999996</v>
@@ -9907,7 +12644,7 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B68" s="12">
         <v>18.940000999999999</v>
@@ -9985,7 +12722,7 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
@@ -10002,12 +12739,12 @@
       <c r="O69" s="14"/>
       <c r="P69" s="14"/>
       <c r="Q69" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B70" s="12">
         <v>0.69599999999999995</v>
@@ -10075,15 +12812,15 @@
         <v>1.2410000000000001</v>
       </c>
       <c r="V70" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W70" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B71" s="12">
         <v>2.2090000000000001</v>
@@ -10161,7 +12898,7 @@
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B72" s="12">
         <v>7.48</v>
@@ -10239,7 +12976,7 @@
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B73" s="12">
         <v>18.937999999999999</v>
@@ -10317,7 +13054,7 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
@@ -10334,12 +13071,12 @@
       <c r="O74" s="14"/>
       <c r="P74" s="14"/>
       <c r="Q74" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B75" s="12">
         <v>0.57499999999999996</v>
@@ -10407,15 +13144,15 @@
         <v>0.58199999999999996</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B76" s="12">
         <v>1.8109999999999999</v>
@@ -10493,7 +13230,7 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77" s="12">
         <v>6.0339999999999998</v>
@@ -10571,7 +13308,7 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B78" s="12">
         <v>20.986999999999998</v>
@@ -10649,7 +13386,7 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C79" s="14"/>
       <c r="D79" s="14"/>
@@ -10666,12 +13403,12 @@
       <c r="O79" s="14"/>
       <c r="P79" s="14"/>
       <c r="Q79" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B80" s="12">
         <v>0.61399999999999999</v>
@@ -10739,15 +13476,15 @@
         <v>0.61799999999999999</v>
       </c>
       <c r="V80" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W80" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B81" s="12">
         <v>2.0449999999999999</v>
@@ -10825,7 +13562,7 @@
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82" s="12">
         <v>7.266</v>
@@ -10903,7 +13640,7 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B83" s="12">
         <v>26.222999999999999</v>
@@ -11021,7 +13758,7 @@
       <c r="O85" s="15"/>
       <c r="P85" s="15"/>
       <c r="Q85" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
@@ -11030,7 +13767,7 @@
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -11047,30 +13784,30 @@
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
       <c r="Q86" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R86" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="R86" s="20" t="s">
+      <c r="S86" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T86" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="S86" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="T86" s="20" t="s">
+      <c r="U86" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="U86" s="20" t="s">
-        <v>4</v>
-      </c>
       <c r="V86" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="W86" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="W86" s="20" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B87" s="18">
         <v>16.297999999999998</v>
@@ -11138,15 +13875,15 @@
         <v>16.315999999999999</v>
       </c>
       <c r="V87" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W87" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B88" s="18">
         <v>44.014000000000003</v>
@@ -11224,7 +13961,7 @@
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B89" s="18">
         <v>170.36099200000001</v>
@@ -11302,7 +14039,7 @@
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B90" s="18">
         <v>668.30895999999996</v>
@@ -11380,7 +14117,7 @@
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -11397,12 +14134,12 @@
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
       <c r="Q91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B92" s="18">
         <v>4.4050000000000002</v>
@@ -11470,15 +14207,15 @@
         <v>4.9989999999999997</v>
       </c>
       <c r="V92" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W92" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B93" s="18">
         <v>16.646000000000001</v>
@@ -11556,7 +14293,7 @@
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B94" s="18">
         <v>56.646000000000001</v>
@@ -11634,7 +14371,7 @@
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B95" s="18">
         <v>200.16099500000001</v>
@@ -11712,7 +14449,7 @@
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -11729,12 +14466,12 @@
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
       <c r="Q96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B97" s="18">
         <v>2.2170000000000001</v>
@@ -11802,15 +14539,15 @@
         <v>2.262</v>
       </c>
       <c r="V97" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W97" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B98" s="18">
         <v>6.1760000000000002</v>
@@ -11888,7 +14625,7 @@
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B99" s="18">
         <v>20.257000000000001</v>
@@ -11966,7 +14703,7 @@
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B100" s="18">
         <v>69.233001999999999</v>
@@ -12044,7 +14781,7 @@
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C101" s="14"/>
       <c r="D101" s="14"/>
@@ -12061,12 +14798,12 @@
       <c r="O101" s="14"/>
       <c r="P101" s="14"/>
       <c r="Q101" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B102" s="12">
         <v>1.6779999999999999</v>
@@ -12134,15 +14871,15 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="V102" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W102" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B103" s="12">
         <v>4.6079999999999997</v>
@@ -12220,7 +14957,7 @@
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B104" s="12">
         <v>13.688000000000001</v>
@@ -12298,7 +15035,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B105" s="12">
         <v>42.498001000000002</v>
@@ -12376,7 +15113,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B106" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C106" s="14"/>
       <c r="D106" s="14"/>
@@ -12393,12 +15130,12 @@
       <c r="O106" s="14"/>
       <c r="P106" s="14"/>
       <c r="Q106" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B107" s="12">
         <v>1.655</v>
@@ -12466,15 +15203,15 @@
         <v>1.7549999999999999</v>
       </c>
       <c r="V107" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W107" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B108" s="12">
         <v>4.2670000000000003</v>
@@ -12552,7 +15289,7 @@
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B109" s="12">
         <v>14.308</v>
@@ -12630,7 +15367,7 @@
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B110" s="12">
         <v>43.836002000000001</v>
@@ -12708,7 +15445,7 @@
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B111" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C111" s="14"/>
       <c r="D111" s="14"/>
@@ -12725,12 +15462,12 @@
       <c r="O111" s="14"/>
       <c r="P111" s="14"/>
       <c r="Q111" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B112" s="12">
         <v>1.802</v>
@@ -12798,15 +15535,15 @@
         <v>1.8680000000000001</v>
       </c>
       <c r="V112" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W112" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B113" s="12">
         <v>4.3150000000000004</v>
@@ -12884,7 +15621,7 @@
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B114" s="12">
         <v>13.208</v>
@@ -12962,7 +15699,7 @@
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B115" s="12">
         <v>43.407997000000002</v>
@@ -13040,7 +15777,7 @@
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B116" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C116" s="14"/>
       <c r="D116" s="14"/>
@@ -13057,12 +15794,12 @@
       <c r="O116" s="14"/>
       <c r="P116" s="14"/>
       <c r="Q116" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B117" s="12">
         <v>1.669</v>
@@ -13130,15 +15867,15 @@
         <v>1.845</v>
       </c>
       <c r="V117" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W117" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B118" s="12">
         <v>5.125</v>
@@ -13216,7 +15953,7 @@
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B119" s="12">
         <v>15.278001</v>
@@ -13294,7 +16031,7 @@
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B120" s="12">
         <v>49.644001000000003</v>
@@ -13372,7 +16109,7 @@
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B121" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
@@ -13389,12 +16126,12 @@
       <c r="O121" s="14"/>
       <c r="P121" s="14"/>
       <c r="Q121" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B122" s="12">
         <v>2.09</v>
@@ -13462,15 +16199,15 @@
         <v>2.1040000000000001</v>
       </c>
       <c r="V122" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W122" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B123" s="12">
         <v>6.7990000000000004</v>
@@ -13548,7 +16285,7 @@
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B124" s="12">
         <v>24.052999</v>
@@ -13626,7 +16363,7 @@
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B125" s="12">
         <v>63.882998999999998</v>
@@ -13959,8 +16696,223 @@
     <row r="145" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P145"/>
     </row>
+    <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="171" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B171" s="27">
+        <v>550</v>
+      </c>
+      <c r="C171" s="28">
+        <v>1451</v>
+      </c>
+      <c r="D171" s="27">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B172" s="27">
+        <v>1360</v>
+      </c>
+      <c r="C172" s="28">
+        <v>2066</v>
+      </c>
+      <c r="D172" s="27">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="27">
+        <v>4210</v>
+      </c>
+      <c r="C173" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D173" s="27">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" s="27">
+        <v>15700</v>
+      </c>
+      <c r="C174" s="28">
+        <v>11604</v>
+      </c>
+      <c r="D174" s="27">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B175" s="27">
+        <v>36720</v>
+      </c>
+      <c r="C175" s="28">
+        <v>15657</v>
+      </c>
+      <c r="D175" s="27">
+        <v>2345</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B18:P43 B59:P85">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:P58">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:P16">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:P86">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:P84">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:P42">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B87:P125">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -13972,8 +16924,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45:P58">
-    <cfRule type="colorScale" priority="39">
+  <conditionalFormatting sqref="Q17">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13984,7 +16936,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:P16">
+  <conditionalFormatting sqref="Q17">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -13996,7 +16960,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:P86">
+  <conditionalFormatting sqref="Q22">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -14008,7 +16996,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45:P84">
+  <conditionalFormatting sqref="Q27">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q32">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -14020,7 +17032,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:P42">
+  <conditionalFormatting sqref="Q32">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -14032,212 +17044,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B87:P125">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q7">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q7">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q7">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q12">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q12">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q12">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q17">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q17">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q27">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q27">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q27">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Q32">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q32">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q32">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14249,7 +17057,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q37">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14261,7 +17069,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q37">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14273,7 +17081,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q37">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14288,4 +17096,3138 @@
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H126"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K122" sqref="K122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1.2869999999999999</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1.29</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.3080000000000001</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4.1849999999999996</v>
+      </c>
+      <c r="C5" s="7">
+        <v>5.1059999999999999</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5.1550000000000002</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5.1630000000000003</v>
+      </c>
+      <c r="F5" s="8">
+        <v>5.1870000000000003</v>
+      </c>
+      <c r="G5" s="10">
+        <v>3.993028659953525</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1.7428350116187596E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>15.448999000000001</v>
+      </c>
+      <c r="C6" s="7">
+        <v>15.697001</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15.721000999999999</v>
+      </c>
+      <c r="E6" s="7">
+        <v>15.802999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>17.742999999999999</v>
+      </c>
+      <c r="G6" s="10">
+        <v>3.0496607177497572</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.23758482056256069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>57.973998999999999</v>
+      </c>
+      <c r="C7" s="7">
+        <v>58.005001</v>
+      </c>
+      <c r="D7" s="7">
+        <v>58.110999999999997</v>
+      </c>
+      <c r="E7" s="7">
+        <v>61.516998000000001</v>
+      </c>
+      <c r="F7" s="8">
+        <v>61.726002000000001</v>
+      </c>
+      <c r="G7" s="10">
+        <v>3.696393124076514</v>
+      </c>
+      <c r="H7" s="11">
+        <v>7.5901718980871502E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.315</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.316</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.318</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.999</v>
+      </c>
+      <c r="G10" s="10">
+        <v>3.0569620253164556</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.23575949367088611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7">
+        <v>3.5990000000000002</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3.6139999999999999</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3.6190000000000002</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="F11" s="8">
+        <v>3.6389999999999998</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3.7463768115942031</v>
+      </c>
+      <c r="H11" s="11">
+        <v>6.3405797101449224E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7">
+        <v>14.488001000000001</v>
+      </c>
+      <c r="C12" s="7">
+        <v>14.500999</v>
+      </c>
+      <c r="D12" s="7">
+        <v>14.511001</v>
+      </c>
+      <c r="E12" s="7">
+        <v>14.530999</v>
+      </c>
+      <c r="F12" s="8">
+        <v>14.547000000000001</v>
+      </c>
+      <c r="G12" s="10">
+        <v>4.0096714562033711</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-2.4178640508427662E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.127</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.152</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.161</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="G15" s="10">
+        <v>2.3191489361702131</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.42021276595744672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1.056</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1.091</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1.107</v>
+      </c>
+      <c r="G16" s="10">
+        <v>3.2446483180428132</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.18883792048929671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3.883</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3.8849999999999998</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3.89</v>
+      </c>
+      <c r="E17" s="7">
+        <v>3.8959999999999999</v>
+      </c>
+      <c r="F17" s="8">
+        <v>3.9009999999999998</v>
+      </c>
+      <c r="G17" s="10">
+        <v>3.6663524976437327</v>
+      </c>
+      <c r="H17" s="11">
+        <v>8.341187558906682E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="7">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="C19" s="7">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E19" s="7">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F19" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.184</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.184</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.185</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.186</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.188</v>
+      </c>
+      <c r="G20" s="10">
+        <v>2.1764705882352939</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0.45588235294117652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="G21" s="10">
+        <v>3.243243243243243</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0.18918918918918926</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2.1309999999999998</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2.1469999999999998</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2.149</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2.153</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2.21</v>
+      </c>
+      <c r="G22" s="10">
+        <v>3.581666666666667</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0.10458333333333325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.111</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.186</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.187</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.188</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.189</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.192</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1.4135338345864661</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0.64661654135338353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="G26" s="10">
+        <v>3.3936170212765959</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0.15159574468085102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2.161</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2.1659999999999999</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2.1739999999999999</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2.1779999999999999</v>
+      </c>
+      <c r="F27" s="7">
+        <v>2.2029999999999998</v>
+      </c>
+      <c r="G27" s="10">
+        <v>3.4075235109717865</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0.14811912225705337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="7">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.123</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.219</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.222</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.223</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1.8048780487804879</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0.54878048780487809</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="G31" s="10">
+        <v>2.8783783783783785</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0.28040540540540537</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="7">
+        <v>2.153</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2.1579999999999999</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2.1640000000000001</v>
+      </c>
+      <c r="E32" s="7">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="F32" s="7">
+        <v>2.2330000000000001</v>
+      </c>
+      <c r="G32" s="10">
+        <v>3.3865414710485133</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0.15336463223787167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="7">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.104</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1.626760563380282</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0.59330985915492951</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.751</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="G36" s="10">
+        <v>3.1645021645021645</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0.20887445887445888</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="7">
+        <v>2.4260000000000002</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2.4340000000000002</v>
+      </c>
+      <c r="E37" s="7">
+        <v>2.4409999999999998</v>
+      </c>
+      <c r="F37" s="7">
+        <v>2.452</v>
+      </c>
+      <c r="G37" s="10">
+        <v>3.3296853625171003</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0.16757865937072491</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="7">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G40" s="10">
+        <v>2.0615384615384618</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0.48461538461538456</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="7">
+        <v>1.034</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1.07</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1.083</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="G41" s="10">
+        <v>3.9925373134328357</v>
+      </c>
+      <c r="H41" s="11">
+        <v>1.8656716417910779E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="7">
+        <v>3.2330000000000001</v>
+      </c>
+      <c r="C42" s="7">
+        <v>3.2450000000000001</v>
+      </c>
+      <c r="D42" s="7">
+        <v>3.246</v>
+      </c>
+      <c r="E42" s="7">
+        <v>3.2530000000000001</v>
+      </c>
+      <c r="F42" s="7">
+        <v>3.2749999999999999</v>
+      </c>
+      <c r="G42" s="10">
+        <v>3.0336448598130841</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0.24158878504672898</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+    </row>
+    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B45" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="7">
+        <v>3.6480000000000001</v>
+      </c>
+      <c r="C46" s="7">
+        <v>3.653</v>
+      </c>
+      <c r="D46" s="7">
+        <v>3.657</v>
+      </c>
+      <c r="E46" s="7">
+        <v>3.6629999999999998</v>
+      </c>
+      <c r="F46" s="7">
+        <v>3.669</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="7">
+        <v>13.676</v>
+      </c>
+      <c r="C47" s="7">
+        <v>13.680999999999999</v>
+      </c>
+      <c r="D47" s="7">
+        <v>13.691000000000001</v>
+      </c>
+      <c r="E47" s="7">
+        <v>13.705</v>
+      </c>
+      <c r="F47" s="7">
+        <v>13.740999</v>
+      </c>
+      <c r="G47" s="10">
+        <v>3.7437790538692921</v>
+      </c>
+      <c r="H47" s="11">
+        <v>6.4055236532676973E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="7">
+        <v>52.329998000000003</v>
+      </c>
+      <c r="C48" s="7">
+        <v>52.347000000000001</v>
+      </c>
+      <c r="D48" s="7">
+        <v>52.379002</v>
+      </c>
+      <c r="E48" s="7">
+        <v>52.387999999999998</v>
+      </c>
+      <c r="F48" s="7">
+        <v>52.572001999999998</v>
+      </c>
+      <c r="G48" s="10">
+        <v>3.8257981155503615</v>
+      </c>
+      <c r="H48" s="11">
+        <v>4.3550471112409617E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="7">
+        <v>203.23899800000001</v>
+      </c>
+      <c r="C49" s="7">
+        <v>203.287003</v>
+      </c>
+      <c r="D49" s="7">
+        <v>203.31401099999999</v>
+      </c>
+      <c r="E49" s="7">
+        <v>203.330994</v>
+      </c>
+      <c r="F49" s="7">
+        <v>203.736008</v>
+      </c>
+      <c r="G49" s="10">
+        <v>3.8815938302910009</v>
+      </c>
+      <c r="H49" s="11">
+        <v>2.9601542427249772E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="7">
+        <v>2.931</v>
+      </c>
+      <c r="C51" s="7">
+        <v>2.9460000000000002</v>
+      </c>
+      <c r="D51" s="7">
+        <v>2.9580000000000002</v>
+      </c>
+      <c r="E51" s="7">
+        <v>2.992</v>
+      </c>
+      <c r="F51" s="7">
+        <v>3.0030000000000001</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="7">
+        <v>9.9959989999999994</v>
+      </c>
+      <c r="C52" s="7">
+        <v>10.058</v>
+      </c>
+      <c r="D52" s="7">
+        <v>10.083</v>
+      </c>
+      <c r="E52" s="7">
+        <v>10.096</v>
+      </c>
+      <c r="F52" s="7">
+        <v>10.923</v>
+      </c>
+      <c r="G52" s="10">
+        <v>3.4087221095334685</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0.14781947261663286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="7">
+        <v>28.471001000000001</v>
+      </c>
+      <c r="C53" s="7">
+        <v>28.500999</v>
+      </c>
+      <c r="D53" s="7">
+        <v>28.595001</v>
+      </c>
+      <c r="E53" s="7">
+        <v>28.624001</v>
+      </c>
+      <c r="F53" s="7">
+        <v>28.751999000000001</v>
+      </c>
+      <c r="G53" s="10">
+        <v>2.8359616185659031</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0.29100959535852422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="7">
+        <v>109.165001</v>
+      </c>
+      <c r="C54" s="7">
+        <v>109.22199999999999</v>
+      </c>
+      <c r="D54" s="7">
+        <v>109.229996</v>
+      </c>
+      <c r="E54" s="7">
+        <v>109.240005</v>
+      </c>
+      <c r="F54" s="7">
+        <v>109.43300600000001</v>
+      </c>
+      <c r="G54" s="10">
+        <v>3.819898310197646</v>
+      </c>
+      <c r="H54" s="11">
+        <v>4.5025422450588493E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="7">
+        <v>2.5070000000000001</v>
+      </c>
+      <c r="C57" s="7">
+        <v>2.5139999999999998</v>
+      </c>
+      <c r="D57" s="7">
+        <v>2.5179999999999998</v>
+      </c>
+      <c r="E57" s="7">
+        <v>2.5489999999999999</v>
+      </c>
+      <c r="F57" s="7">
+        <v>3.1760000000000002</v>
+      </c>
+      <c r="G57" s="10">
+        <v>3.1873417721518984</v>
+      </c>
+      <c r="H57" s="11">
+        <v>0.2031645569620254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="7">
+        <v>8.9049999999999994</v>
+      </c>
+      <c r="C58" s="7">
+        <v>8.9149999999999991</v>
+      </c>
+      <c r="D58" s="7">
+        <v>8.9209999999999994</v>
+      </c>
+      <c r="E58" s="7">
+        <v>8.9369999999999994</v>
+      </c>
+      <c r="F58" s="7">
+        <v>8.9649990000000006</v>
+      </c>
+      <c r="G58" s="10">
+        <v>3.5428911834789516</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0.1142772041302621</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="7">
+        <v>33.155997999999997</v>
+      </c>
+      <c r="C59" s="7">
+        <v>33.173999999999999</v>
+      </c>
+      <c r="D59" s="7">
+        <v>33.186000999999997</v>
+      </c>
+      <c r="E59" s="7">
+        <v>33.197997999999998</v>
+      </c>
+      <c r="F59" s="7">
+        <v>33.399002000000003</v>
+      </c>
+      <c r="G59" s="10">
+        <v>3.7199866606882637</v>
+      </c>
+      <c r="H59" s="11">
+        <v>7.0003334827934083E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="7">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D61" s="7">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="E61" s="7">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="7">
+        <v>1.524</v>
+      </c>
+      <c r="C62" s="7">
+        <v>1.53</v>
+      </c>
+      <c r="D62" s="7">
+        <v>1.5349999999999999</v>
+      </c>
+      <c r="E62" s="7">
+        <v>1.5469999999999999</v>
+      </c>
+      <c r="F62" s="7">
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="G62" s="10">
+        <v>2.8531598513011147</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0.28671003717472132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="7">
+        <v>5.1260000000000003</v>
+      </c>
+      <c r="C63" s="7">
+        <v>5.14</v>
+      </c>
+      <c r="D63" s="7">
+        <v>5.1539999999999999</v>
+      </c>
+      <c r="E63" s="7">
+        <v>5.1619999999999999</v>
+      </c>
+      <c r="F63" s="7">
+        <v>5.1719999999999997</v>
+      </c>
+      <c r="G63" s="10">
+        <v>3.3576547231270362</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0.16058631921824096</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="7">
+        <v>18.610001</v>
+      </c>
+      <c r="C64" s="7">
+        <v>18.629000000000001</v>
+      </c>
+      <c r="D64" s="7">
+        <v>18.688002000000001</v>
+      </c>
+      <c r="E64" s="7">
+        <v>18.707999999999998</v>
+      </c>
+      <c r="F64" s="7">
+        <v>18.739000000000001</v>
+      </c>
+      <c r="G64" s="10">
+        <v>3.6259220023282888</v>
+      </c>
+      <c r="H64" s="11">
+        <v>9.3519499417927809E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="7">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="C66" s="7">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="E66" s="7">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0.495</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="7">
+        <v>1.506</v>
+      </c>
+      <c r="C67" s="7">
+        <v>1.5109999999999999</v>
+      </c>
+      <c r="D67" s="7">
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="E67" s="7">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="F67" s="7">
+        <v>1.5469999999999999</v>
+      </c>
+      <c r="G67" s="10">
+        <v>3.1645833333333333</v>
+      </c>
+      <c r="H67" s="11">
+        <v>0.20885416666666667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="7">
+        <v>5.2039999999999997</v>
+      </c>
+      <c r="C68" s="7">
+        <v>5.2229999999999999</v>
+      </c>
+      <c r="D68" s="7">
+        <v>5.2320000000000002</v>
+      </c>
+      <c r="E68" s="7">
+        <v>5.2469999999999999</v>
+      </c>
+      <c r="F68" s="7">
+        <v>5.258</v>
+      </c>
+      <c r="G68" s="10">
+        <v>3.4443712969058593</v>
+      </c>
+      <c r="H68" s="11">
+        <v>0.13890717577353517</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="7">
+        <v>18.882000000000001</v>
+      </c>
+      <c r="C69" s="7">
+        <v>18.917998999999998</v>
+      </c>
+      <c r="D69" s="7">
+        <v>18.924999</v>
+      </c>
+      <c r="E69" s="7">
+        <v>18.929998000000001</v>
+      </c>
+      <c r="F69" s="7">
+        <v>18.969999000000001</v>
+      </c>
+      <c r="G69" s="10">
+        <v>3.6171634174311924</v>
+      </c>
+      <c r="H69" s="11">
+        <v>9.5709145642201898E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="7">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="C71" s="7">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="D71" s="7">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="E71" s="7">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="F71" s="7">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="7">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="C72" s="7">
+        <v>2.2189999999999999</v>
+      </c>
+      <c r="D72" s="7">
+        <v>2.4460000000000002</v>
+      </c>
+      <c r="E72" s="7">
+        <v>2.9649999999999999</v>
+      </c>
+      <c r="F72" s="7">
+        <v>3.222</v>
+      </c>
+      <c r="G72" s="10">
+        <v>3.3831258644536657</v>
+      </c>
+      <c r="H72" s="11">
+        <v>0.15421853388658358</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="7">
+        <v>7.343</v>
+      </c>
+      <c r="C73" s="7">
+        <v>7.367</v>
+      </c>
+      <c r="D73" s="7">
+        <v>7.4109999999999996</v>
+      </c>
+      <c r="E73" s="7">
+        <v>7.4939999999999998</v>
+      </c>
+      <c r="F73" s="7">
+        <v>8.0359990000000003</v>
+      </c>
+      <c r="G73" s="10">
+        <v>3.0298446443172522</v>
+      </c>
+      <c r="H73" s="11">
+        <v>0.24253883892068695</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="7">
+        <v>18.858000000000001</v>
+      </c>
+      <c r="C74" s="7">
+        <v>18.873000999999999</v>
+      </c>
+      <c r="D74" s="7">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="E74" s="7">
+        <v>19.068000999999999</v>
+      </c>
+      <c r="F74" s="7">
+        <v>19.407</v>
+      </c>
+      <c r="G74" s="10">
+        <v>2.5529618135204428</v>
+      </c>
+      <c r="H74" s="11">
+        <v>0.36175954661988929</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="7">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="C76" s="7">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="D76" s="7">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="E76" s="7">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="7">
+        <v>1.802</v>
+      </c>
+      <c r="C77" s="7">
+        <v>1.8160000000000001</v>
+      </c>
+      <c r="D77" s="7">
+        <v>1.853</v>
+      </c>
+      <c r="E77" s="7">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="F77" s="7">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G77" s="10">
+        <v>3.262323943661972</v>
+      </c>
+      <c r="H77" s="11">
+        <v>0.184419014084507</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="7">
+        <v>5.976</v>
+      </c>
+      <c r="C78" s="7">
+        <v>6.0049999999999999</v>
+      </c>
+      <c r="D78" s="7">
+        <v>6.0220000000000002</v>
+      </c>
+      <c r="E78" s="7">
+        <v>6.0339999999999998</v>
+      </c>
+      <c r="F78" s="7">
+        <v>6.0439999999999996</v>
+      </c>
+      <c r="G78" s="10">
+        <v>3.2498650836481384</v>
+      </c>
+      <c r="H78" s="11">
+        <v>0.1875337290879654</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="7">
+        <v>20.940000999999999</v>
+      </c>
+      <c r="C79" s="7">
+        <v>20.962999</v>
+      </c>
+      <c r="D79" s="7">
+        <v>21.003</v>
+      </c>
+      <c r="E79" s="7">
+        <v>22.103000999999999</v>
+      </c>
+      <c r="F79" s="7">
+        <v>26.095998999999999</v>
+      </c>
+      <c r="G79" s="10">
+        <v>3.4877117236798405</v>
+      </c>
+      <c r="H79" s="11">
+        <v>0.12807206908003987</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="7">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="C81" s="7">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="D81" s="7">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="E81" s="7">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="7">
+        <v>2.0339999999999998</v>
+      </c>
+      <c r="C82" s="7">
+        <v>2.0409999999999999</v>
+      </c>
+      <c r="D82" s="7">
+        <v>2.0710000000000002</v>
+      </c>
+      <c r="E82" s="7">
+        <v>2.0840000000000001</v>
+      </c>
+      <c r="F82" s="7">
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="G82" s="10">
+        <v>3.4288079470198678</v>
+      </c>
+      <c r="H82" s="11">
+        <v>0.14279801324503305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="7">
+        <v>7.2329999999999997</v>
+      </c>
+      <c r="C83" s="7">
+        <v>7.2610000000000001</v>
+      </c>
+      <c r="D83" s="7">
+        <v>7.2690000000000001</v>
+      </c>
+      <c r="E83" s="7">
+        <v>7.2779999999999996</v>
+      </c>
+      <c r="F83" s="7">
+        <v>7.3010000000000002</v>
+      </c>
+      <c r="G83" s="10">
+        <v>3.5098985997102847</v>
+      </c>
+      <c r="H83" s="11">
+        <v>0.12252535007242882</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="7">
+        <v>26.222999999999999</v>
+      </c>
+      <c r="C84" s="7">
+        <v>26.233000000000001</v>
+      </c>
+      <c r="D84" s="7">
+        <v>26.245999999999999</v>
+      </c>
+      <c r="E84" s="7">
+        <v>27.212</v>
+      </c>
+      <c r="F84" s="7">
+        <v>29.329000000000001</v>
+      </c>
+      <c r="G84" s="10">
+        <v>3.610675471178979</v>
+      </c>
+      <c r="H84" s="11">
+        <v>9.7331132205255244E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="24"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+    </row>
+    <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B87" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G87" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H87" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="7">
+        <v>15.199</v>
+      </c>
+      <c r="C88" s="7">
+        <v>15.244999999999999</v>
+      </c>
+      <c r="D88" s="7">
+        <v>15.379001000000001</v>
+      </c>
+      <c r="E88" s="7">
+        <v>15.512</v>
+      </c>
+      <c r="F88" s="7">
+        <v>16.315999999999999</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="7">
+        <v>43.743000000000002</v>
+      </c>
+      <c r="C89" s="7">
+        <v>43.798000000000002</v>
+      </c>
+      <c r="D89" s="7">
+        <v>43.894001000000003</v>
+      </c>
+      <c r="E89" s="7">
+        <v>44.014000000000003</v>
+      </c>
+      <c r="F89" s="7">
+        <v>44.114998</v>
+      </c>
+      <c r="G89" s="10">
+        <v>2.8541516448305062</v>
+      </c>
+      <c r="H89" s="11">
+        <v>0.28646208879237345</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="7">
+        <v>170.266998</v>
+      </c>
+      <c r="C90" s="7">
+        <v>171.56399500000001</v>
+      </c>
+      <c r="D90" s="7">
+        <v>171.61999499999999</v>
+      </c>
+      <c r="E90" s="7">
+        <v>171.641006</v>
+      </c>
+      <c r="F90" s="7">
+        <v>172.02900700000001</v>
+      </c>
+      <c r="G90" s="10">
+        <v>3.9098735838639995</v>
+      </c>
+      <c r="H90" s="11">
+        <v>2.2531604034000119E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="7">
+        <v>668.16302499999995</v>
+      </c>
+      <c r="C91" s="7">
+        <v>668.27294900000004</v>
+      </c>
+      <c r="D91" s="7">
+        <v>668.36700399999995</v>
+      </c>
+      <c r="E91" s="7">
+        <v>669.103027</v>
+      </c>
+      <c r="F91" s="7">
+        <v>687.69097899999997</v>
+      </c>
+      <c r="G91" s="10">
+        <v>3.8944588245676153</v>
+      </c>
+      <c r="H91" s="11">
+        <v>2.6385293858096182E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="7">
+        <v>4.3819999999999997</v>
+      </c>
+      <c r="C93" s="7">
+        <v>4.399</v>
+      </c>
+      <c r="D93" s="7">
+        <v>4.4119999999999999</v>
+      </c>
+      <c r="E93" s="7">
+        <v>4.4320000000000004</v>
+      </c>
+      <c r="F93" s="7">
+        <v>4.9989999999999997</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="7">
+        <v>15.228</v>
+      </c>
+      <c r="C94" s="7">
+        <v>16.094000000000001</v>
+      </c>
+      <c r="D94" s="7">
+        <v>16.322001</v>
+      </c>
+      <c r="E94" s="7">
+        <v>16.747999</v>
+      </c>
+      <c r="F94" s="7">
+        <v>17.207999999999998</v>
+      </c>
+      <c r="G94" s="10">
+        <v>3.6994562556663646</v>
+      </c>
+      <c r="H94" s="11">
+        <v>7.513593608340885E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="7">
+        <v>54.352997000000002</v>
+      </c>
+      <c r="C95" s="7">
+        <v>54.939999</v>
+      </c>
+      <c r="D95" s="7">
+        <v>56.414000999999999</v>
+      </c>
+      <c r="E95" s="7">
+        <v>56.618000000000002</v>
+      </c>
+      <c r="F95" s="7">
+        <v>57.536999000000002</v>
+      </c>
+      <c r="G95" s="10">
+        <v>3.4563164773730866</v>
+      </c>
+      <c r="H95" s="11">
+        <v>0.13592088065672836</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="7">
+        <v>200.141998</v>
+      </c>
+      <c r="C96" s="7">
+        <v>200.779999</v>
+      </c>
+      <c r="D96" s="7">
+        <v>201.45001199999999</v>
+      </c>
+      <c r="E96" s="7">
+        <v>201.77499399999999</v>
+      </c>
+      <c r="F96" s="7">
+        <v>207.570007</v>
+      </c>
+      <c r="G96" s="10">
+        <v>3.5709222609472424</v>
+      </c>
+      <c r="H96" s="11">
+        <v>0.1072694347631894</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="34"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="7">
+        <v>2.1259999999999999</v>
+      </c>
+      <c r="C98" s="7">
+        <v>2.1739999999999999</v>
+      </c>
+      <c r="D98" s="7">
+        <v>2.1930000000000001</v>
+      </c>
+      <c r="E98" s="7">
+        <v>2.2170000000000001</v>
+      </c>
+      <c r="F98" s="7">
+        <v>2.262</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="7">
+        <v>6.1520000000000001</v>
+      </c>
+      <c r="C99" s="7">
+        <v>6.1710000000000003</v>
+      </c>
+      <c r="D99" s="7">
+        <v>6.194</v>
+      </c>
+      <c r="E99" s="7">
+        <v>6.2190000000000003</v>
+      </c>
+      <c r="F99" s="7">
+        <v>6.2560000000000002</v>
+      </c>
+      <c r="G99" s="10">
+        <v>2.824441404468764</v>
+      </c>
+      <c r="H99" s="11">
+        <v>0.293889648882809</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="7">
+        <v>20.132000000000001</v>
+      </c>
+      <c r="C100" s="7">
+        <v>20.16</v>
+      </c>
+      <c r="D100" s="7">
+        <v>20.18</v>
+      </c>
+      <c r="E100" s="7">
+        <v>20.225999999999999</v>
+      </c>
+      <c r="F100" s="7">
+        <v>20.257000000000001</v>
+      </c>
+      <c r="G100" s="10">
+        <v>3.2579916047788182</v>
+      </c>
+      <c r="H100" s="11">
+        <v>0.18550209880529545</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="7">
+        <v>69.119995000000003</v>
+      </c>
+      <c r="C101" s="7">
+        <v>69.159996000000007</v>
+      </c>
+      <c r="D101" s="7">
+        <v>69.262000999999998</v>
+      </c>
+      <c r="E101" s="7">
+        <v>79.391998000000001</v>
+      </c>
+      <c r="F101" s="7">
+        <v>83.029999000000004</v>
+      </c>
+      <c r="G101" s="10">
+        <v>3.4322101585728442</v>
+      </c>
+      <c r="H101" s="11">
+        <v>0.14194746035678896</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="34"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="7">
+        <v>1.611</v>
+      </c>
+      <c r="C103" s="7">
+        <v>1.6459999999999999</v>
+      </c>
+      <c r="D103" s="7">
+        <v>1.73</v>
+      </c>
+      <c r="E103" s="7">
+        <v>2.0430000000000001</v>
+      </c>
+      <c r="F103" s="7">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="C104" s="7">
+        <v>4.2270000000000003</v>
+      </c>
+      <c r="D104" s="7">
+        <v>4.3419999999999996</v>
+      </c>
+      <c r="E104" s="7">
+        <v>4.641</v>
+      </c>
+      <c r="F104" s="7">
+        <v>5.2949999999999999</v>
+      </c>
+      <c r="G104" s="10">
+        <v>2.5098265895953755</v>
+      </c>
+      <c r="H104" s="11">
+        <v>0.37254335260115612</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="7">
+        <v>12.952</v>
+      </c>
+      <c r="C105" s="7">
+        <v>13.455</v>
+      </c>
+      <c r="D105" s="7">
+        <v>13.688000000000001</v>
+      </c>
+      <c r="E105" s="7">
+        <v>14.096999</v>
+      </c>
+      <c r="F105" s="7">
+        <v>14.577000999999999</v>
+      </c>
+      <c r="G105" s="10">
+        <v>3.1524643021649013</v>
+      </c>
+      <c r="H105" s="11">
+        <v>0.21188392445877469</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="7">
+        <v>42.450001</v>
+      </c>
+      <c r="C106" s="7">
+        <v>42.498001000000002</v>
+      </c>
+      <c r="D106" s="7">
+        <v>42.529998999999997</v>
+      </c>
+      <c r="E106" s="7">
+        <v>42.575001</v>
+      </c>
+      <c r="F106" s="7">
+        <v>42.601002000000001</v>
+      </c>
+      <c r="G106" s="10">
+        <v>3.1071010374050259</v>
+      </c>
+      <c r="H106" s="11">
+        <v>0.22322474064874354</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="34"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="34"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="7">
+        <v>1.6279999999999999</v>
+      </c>
+      <c r="C108" s="7">
+        <v>1.659</v>
+      </c>
+      <c r="D108" s="7">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="E108" s="7">
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="F108" s="7">
+        <v>1.7549999999999999</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="7">
+        <v>4.2030000000000003</v>
+      </c>
+      <c r="C109" s="7">
+        <v>4.2670000000000003</v>
+      </c>
+      <c r="D109" s="7">
+        <v>4.3079999999999998</v>
+      </c>
+      <c r="E109" s="7">
+        <v>4.3719999999999999</v>
+      </c>
+      <c r="F109" s="7">
+        <v>4.9420000000000002</v>
+      </c>
+      <c r="G109" s="10">
+        <v>2.5765550239234449</v>
+      </c>
+      <c r="H109" s="11">
+        <v>0.35586124401913877</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="7">
+        <v>13.244</v>
+      </c>
+      <c r="C110" s="7">
+        <v>13.322001</v>
+      </c>
+      <c r="D110" s="7">
+        <v>13.72</v>
+      </c>
+      <c r="E110" s="7">
+        <v>13.993999000000001</v>
+      </c>
+      <c r="F110" s="7">
+        <v>15.545</v>
+      </c>
+      <c r="G110" s="10">
+        <v>3.1847725162488398</v>
+      </c>
+      <c r="H110" s="11">
+        <v>0.20380687093779004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="7">
+        <v>43.582000999999998</v>
+      </c>
+      <c r="C111" s="7">
+        <v>43.613002999999999</v>
+      </c>
+      <c r="D111" s="7">
+        <v>43.648997999999999</v>
+      </c>
+      <c r="E111" s="7">
+        <v>43.707999999999998</v>
+      </c>
+      <c r="F111" s="7">
+        <v>43.836002000000001</v>
+      </c>
+      <c r="G111" s="10">
+        <v>3.1814138483965011</v>
+      </c>
+      <c r="H111" s="11">
+        <v>0.20464653790087473</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="34"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="7">
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="C113" s="7">
+        <v>1.764</v>
+      </c>
+      <c r="D113" s="7">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="E113" s="7">
+        <v>1.8240000000000001</v>
+      </c>
+      <c r="F113" s="7">
+        <v>1.8680000000000001</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="7">
+        <v>4.2389999999999999</v>
+      </c>
+      <c r="C114" s="7">
+        <v>4.25</v>
+      </c>
+      <c r="D114" s="7">
+        <v>4.2789999999999999</v>
+      </c>
+      <c r="E114" s="7">
+        <v>4.2930000000000001</v>
+      </c>
+      <c r="F114" s="7">
+        <v>4.3289999999999997</v>
+      </c>
+      <c r="G114" s="10">
+        <v>2.3759022765130484</v>
+      </c>
+      <c r="H114" s="11">
+        <v>0.4060244308717379</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="7">
+        <v>13.125</v>
+      </c>
+      <c r="C115" s="7">
+        <v>13.151</v>
+      </c>
+      <c r="D115" s="7">
+        <v>13.179999</v>
+      </c>
+      <c r="E115" s="7">
+        <v>13.193</v>
+      </c>
+      <c r="F115" s="7">
+        <v>13.231</v>
+      </c>
+      <c r="G115" s="10">
+        <v>3.0801586819350315</v>
+      </c>
+      <c r="H115" s="11">
+        <v>0.22996032951624212</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="7">
+        <v>43.315002</v>
+      </c>
+      <c r="C116" s="7">
+        <v>43.370002999999997</v>
+      </c>
+      <c r="D116" s="7">
+        <v>43.394001000000003</v>
+      </c>
+      <c r="E116" s="7">
+        <v>43.417000000000002</v>
+      </c>
+      <c r="F116" s="7">
+        <v>43.457999999999998</v>
+      </c>
+      <c r="G116" s="10">
+        <v>3.2924130722619935</v>
+      </c>
+      <c r="H116" s="11">
+        <v>0.17689673193450162</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C117" s="34"/>
+      <c r="D117" s="34"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="34"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="7">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="C118" s="7">
+        <v>1.6850000000000001</v>
+      </c>
+      <c r="D118" s="7">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="E118" s="7">
+        <v>1.756</v>
+      </c>
+      <c r="F118" s="7">
+        <v>1.845</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="7">
+        <v>5.048</v>
+      </c>
+      <c r="C119" s="7">
+        <v>5.125</v>
+      </c>
+      <c r="D119" s="7">
+        <v>5.1479999999999997</v>
+      </c>
+      <c r="E119" s="7">
+        <v>5.1689999999999996</v>
+      </c>
+      <c r="F119" s="7">
+        <v>5.2210000000000001</v>
+      </c>
+      <c r="G119" s="10">
+        <v>3.0052539404553413</v>
+      </c>
+      <c r="H119" s="11">
+        <v>0.24868651488616467</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="7">
+        <v>15.226000000000001</v>
+      </c>
+      <c r="C120" s="7">
+        <v>15.278001</v>
+      </c>
+      <c r="D120" s="7">
+        <v>15.317</v>
+      </c>
+      <c r="E120" s="7">
+        <v>15.38</v>
+      </c>
+      <c r="F120" s="7">
+        <v>16.843</v>
+      </c>
+      <c r="G120" s="10">
+        <v>2.9753302253302256</v>
+      </c>
+      <c r="H120" s="11">
+        <v>0.2561674436674436</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="7">
+        <v>49.604999999999997</v>
+      </c>
+      <c r="C121" s="7">
+        <v>49.740001999999997</v>
+      </c>
+      <c r="D121" s="7">
+        <v>49.796000999999997</v>
+      </c>
+      <c r="E121" s="7">
+        <v>50.877003000000002</v>
+      </c>
+      <c r="F121" s="7">
+        <v>51.518002000000003</v>
+      </c>
+      <c r="G121" s="10">
+        <v>3.2510283345302602</v>
+      </c>
+      <c r="H121" s="11">
+        <v>0.18724291636743495</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="34"/>
+      <c r="G122" s="34"/>
+      <c r="H122" s="34"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="7">
+        <v>2.085</v>
+      </c>
+      <c r="C123" s="7">
+        <v>2.085</v>
+      </c>
+      <c r="D123" s="7">
+        <v>2.09</v>
+      </c>
+      <c r="E123" s="7">
+        <v>2.0979999999999999</v>
+      </c>
+      <c r="F123" s="7">
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="7">
+        <v>6.7670000000000003</v>
+      </c>
+      <c r="C124" s="7">
+        <v>6.7720000000000002</v>
+      </c>
+      <c r="D124" s="7">
+        <v>6.7889999999999997</v>
+      </c>
+      <c r="E124" s="7">
+        <v>6.7990000000000004</v>
+      </c>
+      <c r="F124" s="7">
+        <v>6.8170000000000002</v>
+      </c>
+      <c r="G124" s="10">
+        <v>3.2483253588516745</v>
+      </c>
+      <c r="H124" s="11">
+        <v>0.18791866028708137</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" s="7">
+        <v>24.009001000000001</v>
+      </c>
+      <c r="C125" s="7">
+        <v>24.013000000000002</v>
+      </c>
+      <c r="D125" s="7">
+        <v>24.021999000000001</v>
+      </c>
+      <c r="E125" s="7">
+        <v>24.054001</v>
+      </c>
+      <c r="F125" s="7">
+        <v>24.072001</v>
+      </c>
+      <c r="G125" s="10">
+        <v>3.5383707467962884</v>
+      </c>
+      <c r="H125" s="11">
+        <v>0.11540731330092791</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" s="7">
+        <v>63.675002999999997</v>
+      </c>
+      <c r="C126" s="7">
+        <v>63.693001000000002</v>
+      </c>
+      <c r="D126" s="7">
+        <v>63.704998000000003</v>
+      </c>
+      <c r="E126" s="7">
+        <v>63.717998999999999</v>
+      </c>
+      <c r="F126" s="7">
+        <v>63.882998999999998</v>
+      </c>
+      <c r="G126" s="10">
+        <v>2.6519440784257795</v>
+      </c>
+      <c r="H126" s="11">
+        <v>0.33701398039355512</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B122:H122"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="B102:H102"/>
+    <mergeCell ref="B107:H107"/>
+    <mergeCell ref="B112:H112"/>
+    <mergeCell ref="B117:H117"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>